--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -32,9 +32,6 @@
     <t>Nome das Bases de dados</t>
   </si>
   <si>
-    <t>Valor de G com K2 aleatório</t>
-  </si>
-  <si>
     <t>Valor de G com Boruta + K2</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>Sachs</t>
+  </si>
+  <si>
+    <t>Valor de G com K2 aleatório (Média de 10x)</t>
   </si>
 </sst>
 </file>
@@ -92,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -115,22 +115,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,134 +471,144 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+      <selection activeCell="D4" sqref="D4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -555,18 +620,8 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
   </mergeCells>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -156,18 +156,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -178,15 +192,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,134 +473,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="9" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3">
+        <v>-1.08351086347274E+16</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5">
+        <v>-1.07640870883366E+16</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5">
+        <v>-2229325014552250</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3">
+        <v>-2.22692219006248E+16</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3">
+        <v>8493179607427180</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>1016876408681250</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3">
+        <v>-9942198963601380</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>-9872503647411920</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3">
+        <v>-1.31959734642838E+16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>-4869759785679600</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3">
+        <v>-3.27502176916251E+16</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>-3254689896306370</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3">
+        <v>-7315439614412570</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>-7225809390597090</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="K9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -63,6 +63,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="171" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -156,29 +161,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -192,6 +194,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +493,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,168 +502,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3">
-        <v>-1.08351086347274E+16</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5">
-        <v>-1.07640870883366E+16</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="15">
+        <v>-10.835108634727399</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
+        <v>-107640.87088336601</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5">
-        <v>-2229325014552250</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="3">
-        <v>-2.22692219006248E+16</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="17">
+        <v>-22293.250145522499</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="14">
+        <v>-22269.221900624801</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
         <v>8493179607427180</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8">
         <v>1016876408681250</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3">
-        <v>-9942198963601380</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>-9872503647411920</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="15">
+        <v>-99.421989636013805</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3">
-        <v>-1.31959734642838E+16</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>-4869759785679600</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="13">
+        <v>-131959.73464283801</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
+        <v>-48697.597856795997</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3">
-        <v>-3.27502176916251E+16</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>-3254689896306370</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13">
+        <v>-327502.17691625102</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
+        <v>-325468.98963063699</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3">
-        <v>-7315439614412570</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>-7225809390597090</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="14">
+        <v>-73154.396144125698</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
+        <v>-72258.093905970905</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
       <c r="K9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -662,6 +669,16 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Relatório dos dados obtidos com as interações</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Valor de G com K2 aleatório (Média de 10x)</t>
+  </si>
+  <si>
+    <t>Valor de G com Pearson + K2</t>
+  </si>
+  <si>
+    <t>Valor de G com Spearman + K2</t>
   </si>
 </sst>
 </file>
@@ -64,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000000"/>
-    <numFmt numFmtId="175" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +103,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -157,14 +163,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -174,13 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -195,19 +222,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,88 +517,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="9" width="8.88671875" style="1"/>
+    <col min="4" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="15">
-        <v>-10.835108634727399</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6">
+        <v>-108351.086347274</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="12">
         <v>-107640.87088336601</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="19">
+        <v>-106584.24084760599</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="19">
+        <v>-106733.897947712</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="17">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7">
         <v>-22293.250145522499</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="14">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4">
         <v>-22269.221900624801</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="19">
+        <v>-22281.743215127499</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="19">
+        <v>-22281.743215127499</v>
+      </c>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="8">
         <v>8493179607427180</v>
       </c>
@@ -582,78 +645,152 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="15">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>-99.421989636013805</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>-98.725036474119193</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="19">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="19">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3">
         <v>-131959.73464283801</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
         <v>-48697.597856795997</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="19">
+        <v>-312176.87492872798</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="19">
+        <v>-309986.35200304398</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3">
         <v>-327502.17691625102</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
         <v>-325468.98963063699</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="19">
+        <v>-325843.581118726</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="19">
+        <v>-325836.60571619001</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="14">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4">
         <v>-73154.396144125698</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>-72258.093905970905</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="K9" s="2"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="19">
+        <v>-72267.141452557</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19">
+        <v>-72270.109038895098</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="41">
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -669,16 +806,6 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>Relatório dos dados obtidos com as interações</t>
   </si>
   <si>
-    <t>Nome das Bases de dados</t>
-  </si>
-  <si>
     <t>Valor de G com Boruta + K2</t>
   </si>
   <si>
@@ -63,6 +60,84 @@
   </si>
   <si>
     <t>Valor de G com Spearman + K2</t>
+  </si>
+  <si>
+    <t>Comparações das redes obtidas com as suas Originais (Ordenação Aleatória)</t>
+  </si>
+  <si>
+    <t>Arcos Corretos</t>
+  </si>
+  <si>
+    <t>Arcos Extras</t>
+  </si>
+  <si>
+    <t>Arcos Ausentes</t>
+  </si>
+  <si>
+    <t>Arcos Reversos</t>
+  </si>
+  <si>
+    <t>Acurácia</t>
+  </si>
+  <si>
+    <t>Nome da Base de dados</t>
+  </si>
+  <si>
+    <t>0.26923078</t>
+  </si>
+  <si>
+    <t>0.6666667</t>
+  </si>
+  <si>
+    <t>0.033613447</t>
+  </si>
+  <si>
+    <t>0.31612903</t>
+  </si>
+  <si>
+    <t>0.5555556</t>
+  </si>
+  <si>
+    <t>Comparações das redes obtidas com as suas Originais (K2)</t>
+  </si>
+  <si>
+    <t>Comparações das redes obtidas com as suas Originais (Pearson)</t>
+  </si>
+  <si>
+    <t>Comparações das redes obtidas com as suas Originais (Spearman)</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.054166667</t>
+  </si>
+  <si>
+    <t>0.792</t>
+  </si>
+  <si>
+    <t>0.3888889</t>
+  </si>
+  <si>
+    <t>0.2647059</t>
+  </si>
+  <si>
+    <t>0.18987341</t>
+  </si>
+  <si>
+    <t>0.42068964</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.18867925</t>
+  </si>
+  <si>
+    <t>0.4413793</t>
   </si>
 </sst>
 </file>
@@ -83,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,41 +257,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -222,19 +302,59 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -517,280 +637,1373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="8" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
     <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="17">
+        <v>-108351.086347274</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="10">
+        <v>-107640.87088336601</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="32">
+        <v>-106584.24084760599</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="32">
+        <v>-106733.897947712</v>
+      </c>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="18">
+        <v>-22293.250145522499</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="11">
+        <v>-22269.221900624801</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="32">
+        <v>-22281.743215127499</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32">
+        <v>-22281.743215127499</v>
+      </c>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="12">
+        <v>8493179607427180</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12">
+        <v>1016876408681250</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="17">
+        <v>-99.421989636013805</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="2">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="2">
+        <v>-98.725036474119193</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="16">
+        <v>-131959.73464283801</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
+        <v>-48697.597856795997</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="32">
+        <v>-312176.87492872798</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="32">
+        <v>-309986.35200304398</v>
+      </c>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="16">
+        <v>-327502.17691625102</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
+        <v>-325468.98963063699</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="32">
+        <v>-325843.581118726</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="32">
+        <v>-325836.60571619001</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="11">
+        <v>-73154.396144125698</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11">
+        <v>-72258.093905970905</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="32">
+        <v>-72267.141452557</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="32">
+        <v>-72270.109038895098</v>
+      </c>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="19">
+        <v>21</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19">
+        <v>32</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="9">
+        <v>22</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="24">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25"/>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="24">
+        <v>8</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="24">
+        <v>172</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="24">
+        <v>50</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="9">
+        <v>8</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="24">
+        <v>49</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="24">
+        <v>32</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24">
+        <v>43</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="9">
+        <v>31</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="24">
+        <v>10</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="J19" s="9">
+        <v>7</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="19">
+        <v>22</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="19">
+        <v>42</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="19">
+        <v>4</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="9">
+        <v>20</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="24">
+        <v>6</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="25"/>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="24">
+        <v>13</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="24">
+        <v>174</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="24">
+        <v>44</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="9">
+        <v>9</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="24">
+        <v>99</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="24">
+        <v>22</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="J28" s="9">
+        <v>2</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="24">
+        <v>7</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="9">
+        <v>10</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="19">
+        <v>18</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="19">
+        <v>22</v>
+      </c>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19">
+        <v>2</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="9">
+        <v>26</v>
+      </c>
+      <c r="K33" s="9"/>
+      <c r="L33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="24">
+        <v>3</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24">
+        <v>4</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="24">
+        <v>2</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="9">
+        <v>3</v>
+      </c>
+      <c r="K34" s="9"/>
+      <c r="L34" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="24">
+        <v>20</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="24">
+        <v>92</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="24">
         <v>11</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="I37" s="25"/>
+      <c r="J37" s="9">
+        <v>25</v>
+      </c>
+      <c r="K37" s="9"/>
+      <c r="L37" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="24">
+        <v>61</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="24">
+        <v>22</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="24">
+        <v>32</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="9">
+        <v>30</v>
+      </c>
+      <c r="K38" s="9"/>
+      <c r="L38" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="24">
         <v>12</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="E39" s="25"/>
+      <c r="F39" s="24">
+        <v>1</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="24">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="9">
+        <v>5</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="L39" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="19">
+        <v>16</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="19">
+        <v>34</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
-        <v>-108351.086347274</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="12">
-        <v>-107640.87088336601</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="19">
-        <v>-106584.24084760599</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="19">
-        <v>-106733.897947712</v>
-      </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="I43" s="21"/>
+      <c r="J43" s="9">
+        <v>27</v>
+      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="24">
+        <v>3</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7">
-        <v>-22293.250145522499</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4">
-        <v>-22269.221900624801</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="19">
-        <v>-22281.743215127499</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="19">
-        <v>-22281.743215127499</v>
-      </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="G44" s="25"/>
+      <c r="H44" s="24">
+        <v>2</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="9">
+        <v>3</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8">
-        <v>8493179607427180</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8">
-        <v>1016876408681250</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6">
-        <v>-99.421989636013805</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>-98.725036474119193</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="19">
-        <v>-98.725036474119193</v>
-      </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="19">
-        <v>-98.725036474119193</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="21"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="24">
+        <v>30</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="24">
+        <v>93</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="24">
+        <v>11</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="9">
+        <v>25</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3">
-        <v>-131959.73464283801</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
-        <v>-48697.597856795997</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="19">
-        <v>-312176.87492872798</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="19">
-        <v>-309986.35200304398</v>
-      </c>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="24">
+        <v>64</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="24">
+        <v>22</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="24">
+        <v>31</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="9">
+        <v>28</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3">
-        <v>-327502.17691625102</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>-325468.98963063699</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="19">
-        <v>-325843.581118726</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="19">
-        <v>-325836.60571619001</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4">
-        <v>-73154.396144125698</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>-72258.093905970905</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="19">
-        <v>-72267.141452557</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="19">
-        <v>-72270.109038895098</v>
-      </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J13" s="2"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="24">
+        <v>10</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="24">
+        <v>1</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="24">
+        <v>0</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="9">
+        <v>7</v>
+      </c>
+      <c r="K49" s="9"/>
+      <c r="L49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="237">
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
@@ -806,6 +2019,32 @@
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -257,40 +257,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -302,46 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,6 +337,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +643,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,134 +655,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="17">
         <v>-108351.086347274</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="10">
+      <c r="G3" s="20">
         <v>-107640.87088336601</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="32">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="26">
         <v>-106584.24084760599</v>
       </c>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="32">
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="26">
         <v>-106733.897947712</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="18">
         <v>-22293.250145522499</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="11">
+      <c r="G4" s="16">
         <v>-22269.221900624801</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="32">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="26">
         <v>-22281.743215127499</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32">
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="26">
         <v>-22281.743215127499</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="12">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="19">
         <v>8493179607427180</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
         <v>1016876408681250</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="7">
+        <v>1580268371470900</v>
+      </c>
+      <c r="K5" s="35"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7">
+        <v>1.45861498898231E+16</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="8"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="17">
         <v>-99.421989636013805</v>
       </c>
@@ -790,1024 +797,1243 @@
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="2">
+      <c r="J6" s="32">
         <v>-98.725036474119193</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="2">
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="32">
         <v>-98.725036474119193</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="16">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15">
         <v>-131959.73464283801</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
         <v>-48697.597856795997</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="32">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="26">
         <v>-312176.87492872798</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="32">
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="26">
         <v>-309986.35200304398</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="34"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="16">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="15">
         <v>-327502.17691625102</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15">
         <v>-325468.98963063699</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="32">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="26">
         <v>-325843.581118726</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="32">
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="26">
         <v>-325836.60571619001</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="34"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="11">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="16">
         <v>-73154.396144125698</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16">
         <v>-72258.093905970905</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="32">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="26">
         <v>-72267.141452557</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="32">
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="26">
         <v>-72270.109038895098</v>
       </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="34"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="29" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="19">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
         <v>32</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="19">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="9">
         <v>22</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="24">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24">
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="9"/>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="25"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="24">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
         <v>8</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
         <v>172</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24">
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
         <v>50</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="9">
         <v>8</v>
       </c>
       <c r="K17" s="9"/>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="24">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7">
         <v>49</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="24">
+      <c r="E18" s="8"/>
+      <c r="F18" s="7">
         <v>32</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24">
+      <c r="G18" s="8"/>
+      <c r="H18" s="7">
         <v>43</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="9">
         <v>31</v>
       </c>
       <c r="K18" s="9"/>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="24">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7">
         <v>10</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24">
+      <c r="E19" s="8"/>
+      <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24">
+      <c r="G19" s="8"/>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="9">
         <v>7</v>
       </c>
       <c r="K19" s="9"/>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="29" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="K22" s="13"/>
+      <c r="L22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="19">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19">
+      <c r="E23" s="5"/>
+      <c r="F23" s="3">
         <v>42</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="19">
+      <c r="G23" s="5"/>
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="I23" s="21"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="9">
         <v>20</v>
       </c>
       <c r="K23" s="9"/>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="24">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7">
         <v>6</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="9">
         <v>1</v>
       </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="19" t="s">
+      <c r="L24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="24">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>13</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="24">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7">
         <v>174</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24">
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
         <v>44</v>
       </c>
-      <c r="I27" s="25"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="9">
         <v>9</v>
       </c>
       <c r="K27" s="9"/>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="24">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7">
         <v>99</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24">
+      <c r="E28" s="8"/>
+      <c r="F28" s="7">
         <v>2</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24">
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
         <v>22</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="9">
         <v>2</v>
       </c>
       <c r="K28" s="9"/>
-      <c r="L28" s="19" t="s">
+      <c r="L28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="24">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7">
         <v>7</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="24">
+      <c r="E29" s="8"/>
+      <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="24">
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="9">
         <v>10</v>
       </c>
       <c r="K29" s="9"/>
-      <c r="L29" s="19" t="s">
+      <c r="L29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="29" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29" t="s">
+      <c r="G32" s="14"/>
+      <c r="H32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="14"/>
+      <c r="J32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5" t="s">
+      <c r="K32" s="13"/>
+      <c r="L32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="19">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3">
         <v>18</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="19">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3">
         <v>22</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="9">
         <v>26</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="19" t="s">
+      <c r="L33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="21"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="24">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="24">
+      <c r="E34" s="8"/>
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="24">
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="25"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="9">
         <v>3</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="25"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="21"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="25"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="21"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="24">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
         <v>20</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="24">
+      <c r="E37" s="8"/>
+      <c r="F37" s="7">
         <v>92</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="24">
+      <c r="G37" s="8"/>
+      <c r="H37" s="7">
         <v>11</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="9">
         <v>25</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="21"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="24">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7">
         <v>61</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="24">
+      <c r="E38" s="8"/>
+      <c r="F38" s="7">
         <v>22</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="24">
+      <c r="G38" s="8"/>
+      <c r="H38" s="7">
         <v>32</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="9">
         <v>30</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="24">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7">
         <v>12</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24">
+      <c r="E39" s="8"/>
+      <c r="F39" s="7">
         <v>1</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="24">
+      <c r="G39" s="8"/>
+      <c r="H39" s="7">
         <v>0</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="9">
         <v>5</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="21"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="23"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="29" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29" t="s">
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29" t="s">
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="5" t="s">
+      <c r="I42" s="14"/>
+      <c r="J42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5" t="s">
+      <c r="K42" s="13"/>
+      <c r="L42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="19">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3">
         <v>16</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="19">
+      <c r="E43" s="5"/>
+      <c r="F43" s="3">
         <v>34</v>
       </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19">
+      <c r="G43" s="5"/>
+      <c r="H43" s="3">
         <v>3</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="9">
         <v>27</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="21"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="24">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="24">
+      <c r="E44" s="8"/>
+      <c r="F44" s="7">
         <v>4</v>
       </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="24">
+      <c r="G44" s="8"/>
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="I44" s="25"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="9">
         <v>3</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="21"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="25"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="21"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="21"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="24">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7">
         <v>30</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="24">
+      <c r="E47" s="8"/>
+      <c r="F47" s="7">
         <v>93</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="24">
+      <c r="G47" s="8"/>
+      <c r="H47" s="7">
         <v>11</v>
       </c>
-      <c r="I47" s="25"/>
+      <c r="I47" s="8"/>
       <c r="J47" s="9">
         <v>25</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="19" t="s">
+      <c r="L47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="21"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="24">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7">
         <v>64</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="24">
+      <c r="E48" s="8"/>
+      <c r="F48" s="7">
         <v>22</v>
       </c>
-      <c r="G48" s="25"/>
-      <c r="H48" s="24">
+      <c r="G48" s="8"/>
+      <c r="H48" s="7">
         <v>31</v>
       </c>
-      <c r="I48" s="25"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="9">
         <v>28</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="5"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="24">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7">
         <v>10</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="24">
+      <c r="E49" s="8"/>
+      <c r="F49" s="7">
         <v>1</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="24">
+      <c r="G49" s="8"/>
+      <c r="H49" s="7">
         <v>0</v>
       </c>
-      <c r="I49" s="25"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="9">
         <v>7</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="19" t="s">
+      <c r="L49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="21"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="237">
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="L49:O49"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="D49:E49"/>
@@ -1826,225 +2052,6 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -246,19 +246,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -270,7 +318,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,67 +336,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,24 +370,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,7 +655,7 @@
   <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="M5" sqref="M5:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,185 +667,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="15" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="5">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="36">
         <v>-108351.086347274</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="36">
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="42">
         <v>-107640.87088336601</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="8">
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="24">
         <v>-106584.24084760599</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="8">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24">
         <v>-106733.897947712</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="39">
         <v>-22293.250145522499</v>
       </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="28">
+      <c r="G4" s="27">
         <v>-22269.221900624801</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="8">
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="24">
         <v>-22281.743215127499</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="8">
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24">
         <v>-22281.743215127499</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="8">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24">
         <v>-131959.73464283801</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8">
-        <v>-48697.597856795997</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="8">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24">
+        <v>-310354.92166205897</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24">
         <v>-312176.87492872798</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8">
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="24">
         <v>-309986.35200304398</v>
       </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="8">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="24">
         <v>-327502.17691625102</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24">
         <v>-325468.98963063699</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="8">
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24">
         <v>-325843.581118726</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8">
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24">
         <v>-325836.60571619001</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="27">
         <v>-73154.396144125698</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27">
         <v>-72258.093905970905</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="8">
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="24">
         <v>-72267.141452557</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8">
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24">
         <v>-72270.109038895098</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9"/>
@@ -856,23 +856,23 @@
       <c r="I9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -880,18 +880,18 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="11" t="s">
         <v>14</v>
       </c>
@@ -904,361 +904,361 @@
       <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="22">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
         <v>32</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="22">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="21">
+      <c r="I13" s="5"/>
+      <c r="J13" s="9">
         <v>22</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3">
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="21">
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
         <v>1</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
         <v>8</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3">
+      <c r="E15" s="8"/>
+      <c r="F15" s="7">
         <v>172</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3">
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
         <v>50</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="21">
+      <c r="I15" s="8"/>
+      <c r="J15" s="9">
         <v>8</v>
       </c>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="23"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="3">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
         <v>49</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7">
         <v>32</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3">
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="21">
+      <c r="I16" s="8"/>
+      <c r="J16" s="9">
         <v>31</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3">
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="21">
+      <c r="I17" s="8"/>
+      <c r="J17" s="9">
         <v>7</v>
       </c>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="35"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="31" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="31" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="31" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="15" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="22">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22">
+      <c r="E23" s="5"/>
+      <c r="F23" s="3">
         <v>42</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22">
+      <c r="G23" s="5"/>
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22">
+      <c r="I23" s="5"/>
+      <c r="J23" s="3">
         <v>20</v>
       </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="22" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7">
         <v>6</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="3">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="22">
+      <c r="I24" s="8"/>
+      <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="23"/>
-      <c r="L24" s="22" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7">
         <v>13</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="3">
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
         <v>174</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3">
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
         <v>44</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="22">
+      <c r="I25" s="8"/>
+      <c r="J25" s="3">
         <v>9</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="22" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="23"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
         <v>99</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="3">
+      <c r="E26" s="8"/>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="3">
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
         <v>22</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="21">
+      <c r="I26" s="8"/>
+      <c r="J26" s="9">
         <v>2</v>
       </c>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="23"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>7</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="3">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="3">
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="21">
+      <c r="I27" s="8"/>
+      <c r="J27" s="9">
         <v>10</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
@@ -1266,18 +1266,18 @@
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="11" t="s">
         <v>14</v>
       </c>
@@ -1290,168 +1290,168 @@
       <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="22">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3">
         <v>18</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="22">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3">
         <v>22</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="22">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="21">
+      <c r="I33" s="5"/>
+      <c r="J33" s="9">
         <v>26</v>
       </c>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3">
+      <c r="E34" s="8"/>
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3">
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="21">
+      <c r="I34" s="8"/>
+      <c r="J34" s="9">
         <v>3</v>
       </c>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
         <v>20</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="3">
+      <c r="E35" s="8"/>
+      <c r="F35" s="7">
         <v>92</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3">
+      <c r="G35" s="8"/>
+      <c r="H35" s="7">
         <v>11</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="21">
+      <c r="I35" s="8"/>
+      <c r="J35" s="9">
         <v>25</v>
       </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22" t="s">
+      <c r="K35" s="9"/>
+      <c r="L35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
         <v>61</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="3">
+      <c r="E36" s="8"/>
+      <c r="F36" s="7">
         <v>22</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3">
+      <c r="G36" s="8"/>
+      <c r="H36" s="7">
         <v>32</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="21">
+      <c r="I36" s="8"/>
+      <c r="J36" s="9">
         <v>30</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="23"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
         <v>12</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3">
+      <c r="E37" s="8"/>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3">
+      <c r="G37" s="8"/>
+      <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="21">
+      <c r="I37" s="8"/>
+      <c r="J37" s="9">
         <v>5</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="23"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
@@ -1459,18 +1459,18 @@
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="20"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="11" t="s">
         <v>14</v>
       </c>
@@ -1483,152 +1483,313 @@
       <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="22">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3">
         <v>16</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="22">
+      <c r="E43" s="5"/>
+      <c r="F43" s="3">
         <v>34</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="22">
+      <c r="G43" s="5"/>
+      <c r="H43" s="3">
         <v>3</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="21">
+      <c r="I43" s="5"/>
+      <c r="J43" s="9">
         <v>27</v>
       </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="3">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3">
+      <c r="E44" s="8"/>
+      <c r="F44" s="7">
         <v>4</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="3">
+      <c r="G44" s="8"/>
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="21">
+      <c r="I44" s="8"/>
+      <c r="J44" s="9">
         <v>3</v>
       </c>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="23"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7">
         <v>30</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3">
+      <c r="E45" s="8"/>
+      <c r="F45" s="7">
         <v>93</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="3">
+      <c r="G45" s="8"/>
+      <c r="H45" s="7">
         <v>11</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="21">
+      <c r="I45" s="8"/>
+      <c r="J45" s="9">
         <v>25</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="L45" s="22" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="3">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
         <v>64</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3">
+      <c r="E46" s="8"/>
+      <c r="F46" s="7">
         <v>22</v>
       </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="3">
+      <c r="G46" s="8"/>
+      <c r="H46" s="7">
         <v>31</v>
       </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="21">
+      <c r="I46" s="8"/>
+      <c r="J46" s="9">
         <v>28</v>
       </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="23"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="3">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7">
         <v>10</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="3">
+      <c r="E47" s="8"/>
+      <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="3">
+      <c r="G47" s="8"/>
+      <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="21">
+      <c r="I47" s="8"/>
+      <c r="J47" s="9">
         <v>7</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="23"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="L47:O47"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:E47"/>
@@ -1647,167 +1808,6 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -245,6 +245,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,6 +300,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,24 +344,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -306,60 +360,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:O4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,185 +657,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="3" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="12">
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="24">
         <v>-108268.07632394299</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="21">
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="39">
         <v>-107640.87088336601</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="12">
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="24">
         <v>-106584.24084760599</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="12">
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="24">
         <v>-106733.897947712</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="36">
         <v>-22299.308693610001</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="27">
         <v>-22269.221900624801</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="12">
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="24">
         <v>-22281.743215127499</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="12">
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="24">
         <v>-22281.743215127499</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="24">
         <v>-389761.22320095298</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12">
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="24">
         <v>-310187.16671408399</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12">
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="24">
         <v>-312176.87492872798</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="12">
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="24">
         <v>-309986.35200304398</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="24">
         <v>-327502.17691625102</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12">
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24">
         <v>-325468.98963063699</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12">
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="24">
         <v>-325843.581118726</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="12">
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="24">
         <v>-325836.60571619001</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="24">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="27">
         <v>-73016.842172737001</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24">
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27">
         <v>-72258.093905970905</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="12">
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="24">
         <v>-72267.141452557</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12">
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="24">
         <v>-72270.109038895098</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D9"/>
@@ -846,779 +846,940 @@
       <c r="I9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
+      <c r="K12" s="11"/>
+      <c r="L12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="31">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="3">
         <v>21</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="31">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
         <v>32</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="31">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="30">
+      <c r="I13" s="5"/>
+      <c r="J13" s="9">
         <v>22</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31" t="s">
+      <c r="K13" s="9"/>
+      <c r="L13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7">
         <v>6</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35">
+      <c r="E14" s="8"/>
+      <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="35">
+      <c r="G14" s="8"/>
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="30">
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
         <v>1</v>
       </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31" t="s">
+      <c r="K14" s="9"/>
+      <c r="L14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="33"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7">
         <v>31</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35">
+      <c r="E15" s="8"/>
+      <c r="F15" s="7">
         <v>86</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="35">
+      <c r="G15" s="8"/>
+      <c r="H15" s="7">
         <v>12</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="30">
+      <c r="I15" s="8"/>
+      <c r="J15" s="9">
         <v>23</v>
       </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
         <v>49</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35">
+      <c r="E16" s="8"/>
+      <c r="F16" s="7">
         <v>32</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35">
+      <c r="G16" s="8"/>
+      <c r="H16" s="7">
         <v>43</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="30">
+      <c r="I16" s="8"/>
+      <c r="J16" s="9">
         <v>31</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7">
         <v>10</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35">
+      <c r="E17" s="8"/>
+      <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="35">
+      <c r="G17" s="8"/>
+      <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="30">
+      <c r="I17" s="8"/>
+      <c r="J17" s="9">
         <v>7</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31" t="s">
+      <c r="K17" s="9"/>
+      <c r="L17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="40" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="40" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="40" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="31">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="31">
+      <c r="E23" s="5"/>
+      <c r="F23" s="3">
         <v>42</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="31">
+      <c r="G23" s="5"/>
+      <c r="H23" s="3">
         <v>4</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="31">
+      <c r="I23" s="5"/>
+      <c r="J23" s="3">
         <v>20</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="31" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="35">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7">
         <v>6</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35">
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="31">
+      <c r="I24" s="8"/>
+      <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="31" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="35">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7">
         <v>30</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35">
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
         <v>84</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35">
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
         <v>11</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="31">
+      <c r="I25" s="8"/>
+      <c r="J25" s="3">
         <v>25</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="31" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7">
         <v>99</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35">
+      <c r="E26" s="8"/>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35">
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
         <v>22</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="30">
+      <c r="I26" s="8"/>
+      <c r="J26" s="9">
         <v>2</v>
       </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7">
         <v>7</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35">
+      <c r="E27" s="8"/>
+      <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35">
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
         <v>0</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="30">
+      <c r="I27" s="8"/>
+      <c r="J27" s="9">
         <v>10</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31" t="s">
+      <c r="K27" s="9"/>
+      <c r="L27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29" t="s">
+      <c r="I32" s="12"/>
+      <c r="J32" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="31">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="3">
         <v>18</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="31">
+      <c r="E33" s="5"/>
+      <c r="F33" s="3">
         <v>22</v>
       </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="31">
+      <c r="G33" s="5"/>
+      <c r="H33" s="3">
         <v>2</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="30">
+      <c r="I33" s="5"/>
+      <c r="J33" s="9">
         <v>26</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31" t="s">
+      <c r="K33" s="9"/>
+      <c r="L33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35">
+      <c r="E34" s="8"/>
+      <c r="F34" s="7">
         <v>4</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="35">
+      <c r="G34" s="8"/>
+      <c r="H34" s="7">
         <v>2</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="30">
+      <c r="I34" s="8"/>
+      <c r="J34" s="9">
         <v>3</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31" t="s">
+      <c r="K34" s="9"/>
+      <c r="L34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="33"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7">
         <v>20</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35">
+      <c r="E35" s="8"/>
+      <c r="F35" s="7">
         <v>92</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="35">
+      <c r="G35" s="8"/>
+      <c r="H35" s="7">
         <v>11</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="30">
+      <c r="I35" s="8"/>
+      <c r="J35" s="9">
         <v>25</v>
       </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31" t="s">
+      <c r="K35" s="9"/>
+      <c r="L35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7">
         <v>61</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="35">
+      <c r="E36" s="8"/>
+      <c r="F36" s="7">
         <v>22</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="35">
+      <c r="G36" s="8"/>
+      <c r="H36" s="7">
         <v>32</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="J36" s="30">
+      <c r="I36" s="8"/>
+      <c r="J36" s="9">
         <v>30</v>
       </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7">
         <v>12</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35">
+      <c r="E37" s="8"/>
+      <c r="F37" s="7">
         <v>1</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="35">
+      <c r="G37" s="8"/>
+      <c r="H37" s="7">
         <v>0</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="30">
+      <c r="I37" s="8"/>
+      <c r="J37" s="9">
         <v>5</v>
       </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="33"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="28" t="s">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28" t="s">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29" t="s">
+      <c r="I42" s="12"/>
+      <c r="J42" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29" t="s">
+      <c r="K42" s="11"/>
+      <c r="L42" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="31">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="3">
         <v>16</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="31">
+      <c r="E43" s="5"/>
+      <c r="F43" s="3">
         <v>34</v>
       </c>
-      <c r="G43" s="33"/>
-      <c r="H43" s="31">
+      <c r="G43" s="5"/>
+      <c r="H43" s="3">
         <v>3</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="30">
+      <c r="I43" s="5"/>
+      <c r="J43" s="9">
         <v>27</v>
       </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="33"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="35">
+      <c r="E44" s="8"/>
+      <c r="F44" s="7">
         <v>4</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="35">
+      <c r="G44" s="8"/>
+      <c r="H44" s="7">
         <v>2</v>
       </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="30">
+      <c r="I44" s="8"/>
+      <c r="J44" s="9">
         <v>3</v>
       </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="31" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="33"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="35">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7">
         <v>30</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="35">
+      <c r="E45" s="8"/>
+      <c r="F45" s="7">
         <v>93</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="35">
+      <c r="G45" s="8"/>
+      <c r="H45" s="7">
         <v>11</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="30">
+      <c r="I45" s="8"/>
+      <c r="J45" s="9">
         <v>25</v>
       </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="31" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="33"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="35">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7">
         <v>64</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="35">
+      <c r="E46" s="8"/>
+      <c r="F46" s="7">
         <v>22</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="35">
+      <c r="G46" s="8"/>
+      <c r="H46" s="7">
         <v>31</v>
       </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="30">
+      <c r="I46" s="8"/>
+      <c r="J46" s="9">
         <v>28</v>
       </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="33"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="5"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7">
         <v>10</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="35">
+      <c r="E47" s="8"/>
+      <c r="F47" s="7">
         <v>1</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="35">
+      <c r="G47" s="8"/>
+      <c r="H47" s="7">
         <v>0</v>
       </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="30">
+      <c r="I47" s="8"/>
+      <c r="J47" s="9">
         <v>7</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="33"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="L47:O47"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="D47:E47"/>
@@ -1637,167 +1798,6 @@
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados/resultados.xlsx
+++ b/Resultados/resultados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Relatório dos dados obtidos com as interações</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>0.20666666</t>
+  </si>
+  <si>
+    <t>218.34</t>
+  </si>
+  <si>
+    <t>0.36734694</t>
+  </si>
+  <si>
+    <t>0.20855615</t>
+  </si>
+  <si>
+    <t>1428.58</t>
+  </si>
+  <si>
+    <t>1123.14</t>
+  </si>
+  <si>
+    <t>1139.58</t>
   </si>
 </sst>
 </file>
@@ -349,100 +367,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,7 +746,7 @@
   <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:O23"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,376 +759,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="W1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="W1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
     </row>
     <row r="2" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="14" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="3" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="5"/>
-      <c r="W2" s="14" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
+      <c r="W2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="32" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32" t="s">
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32" t="s">
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32" t="s">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="32"/>
+      <c r="AG2" s="3"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="28">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="15">
         <v>-108313.243808361</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11">
         <v>-107265.55397817701</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
         <v>-109214.63822174601</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="29">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="34">
         <v>-107943.997039123</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="6">
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="12">
         <v>-106584.24084760599</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="6">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="12">
         <v>-106733.897947712</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="8"/>
-      <c r="W3" s="19" t="s">
+      <c r="T3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="W3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="15" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15" t="s">
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15" t="s">
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AG3" s="15"/>
+      <c r="AG3" s="4"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="30">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="33">
         <v>-22297.7014744548</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="11">
         <v>-22280.164688077199</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31">
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
         <v>-22347.980894050299</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31">
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11">
         <v>-22269.221900624801</v>
       </c>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="6">
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12">
         <v>-22281.743215127499</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="6">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="12">
         <v>-22281.743215127499</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="8"/>
-      <c r="W4" s="19" t="s">
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="W4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="15" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15" t="s">
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15" t="s">
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15" t="s">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AG4" s="15"/>
+      <c r="AG4" s="4"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="28">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="15">
         <v>-380827.619458067</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="11">
         <v>-330204.55311146501</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
         <v>-438029.13823746401</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="28">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="15">
         <v>-310354.92166205897</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="6">
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="12">
         <v>-312176.87492872798</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="6">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="12">
         <v>-309986.35200304398</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="8"/>
-      <c r="W5" s="19" t="s">
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="W5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="15" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15" t="s">
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15" t="s">
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15" t="s">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AG5" s="15"/>
+      <c r="AG5" s="4"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="15">
+        <v>-327254.32870500401</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11">
+        <v>-326382.73408602801</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>-328733.96078630601</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="15">
         <v>-325468.98963063699</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="6">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="12">
         <v>-325843.581118726</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="6">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="12">
         <v>-325836.60571619001</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
-      <c r="W6" s="19" t="s">
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="W6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="31">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="11">
         <v>-73034.544668687799</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11">
         <v>-72268.210624200903</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11">
         <v>-73921.289946839097</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31">
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
         <v>-72258.093905970905</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="6">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12">
         <v>-72267.141452557</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="6">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="12">
         <v>-72270.109038895098</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
-      <c r="W7" s="19" t="s">
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="15" t="s">
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15" t="s">
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15" t="s">
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15" t="s">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="15"/>
+      <c r="AG7" s="4"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="D9"/>
@@ -1121,938 +1153,1193 @@
       <c r="I9"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="Q11" s="12" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="Q11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="21"/>
+      <c r="H12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="Q12" s="14" t="s">
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="Q12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="13" t="s">
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13" t="s">
+      <c r="U12" s="21"/>
+      <c r="V12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13" t="s">
+      <c r="W12" s="21"/>
+      <c r="X12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14" t="s">
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14" t="s">
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="16">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="18">
         <v>25</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16">
+      <c r="E13" s="20"/>
+      <c r="F13" s="18">
         <v>36</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16">
+      <c r="G13" s="20"/>
+      <c r="H13" s="18">
         <v>4</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="15">
+      <c r="I13" s="20"/>
+      <c r="J13" s="4">
         <v>17</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
-      <c r="Q13" s="19" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="Q13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="16">
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="18">
         <v>13</v>
       </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="16">
+      <c r="U13" s="20"/>
+      <c r="V13" s="18">
         <v>49</v>
       </c>
-      <c r="W13" s="18"/>
-      <c r="X13" s="16">
+      <c r="W13" s="20"/>
+      <c r="X13" s="18">
         <v>6</v>
       </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="15">
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="4">
         <v>27</v>
       </c>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="16" t="s">
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="18"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="20"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="16">
         <v>5</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="20">
+      <c r="E14" s="17"/>
+      <c r="F14" s="16">
         <v>4</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="20">
+      <c r="G14" s="17"/>
+      <c r="H14" s="16">
         <v>3</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="15">
+      <c r="I14" s="17"/>
+      <c r="J14" s="4">
         <v>0</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="18"/>
-      <c r="Q14" s="19" t="s">
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="Q14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20">
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="16">
         <v>2</v>
       </c>
-      <c r="U14" s="21"/>
-      <c r="V14" s="20">
+      <c r="U14" s="17"/>
+      <c r="V14" s="16">
         <v>7</v>
       </c>
-      <c r="W14" s="21"/>
-      <c r="X14" s="20">
+      <c r="W14" s="17"/>
+      <c r="X14" s="16">
         <v>1</v>
       </c>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="15">
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="4">
         <v>5</v>
       </c>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="16" t="s">
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="18"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="20"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="16">
         <v>34</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20">
+      <c r="E15" s="17"/>
+      <c r="F15" s="16">
         <v>84</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="20">
+      <c r="G15" s="17"/>
+      <c r="H15" s="16">
         <v>9</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="15">
+      <c r="I15" s="17"/>
+      <c r="J15" s="4">
         <v>23</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16" t="s">
+      <c r="K15" s="4"/>
+      <c r="L15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="18"/>
-      <c r="Q15" s="19" t="s">
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="Q15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="20">
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="16">
         <v>20</v>
       </c>
-      <c r="U15" s="21"/>
-      <c r="V15" s="20">
+      <c r="U15" s="17"/>
+      <c r="V15" s="16">
         <v>80</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="20">
+      <c r="W15" s="17"/>
+      <c r="X15" s="16">
         <v>24</v>
       </c>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="15">
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="4">
         <v>22</v>
       </c>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="16" t="s">
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="18"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="20"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
-      <c r="Q16" s="19" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="16">
+        <v>54</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="16">
+        <v>24</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16">
+        <v>39</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="4">
+        <v>30</v>
+      </c>
+      <c r="K16" s="4"/>
+      <c r="L16" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="Q16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="18"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="16">
+        <v>39</v>
+      </c>
+      <c r="U16" s="17"/>
+      <c r="V16" s="16">
+        <v>64</v>
+      </c>
+      <c r="W16" s="17"/>
+      <c r="X16" s="16">
+        <v>56</v>
+      </c>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="4">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="20"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="16">
         <v>12</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20">
+      <c r="E17" s="17"/>
+      <c r="F17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="20">
+      <c r="G17" s="17"/>
+      <c r="H17" s="16">
         <v>0</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="15">
+      <c r="I17" s="17"/>
+      <c r="J17" s="4">
         <v>5</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="18"/>
-      <c r="Q17" s="19" t="s">
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="Q17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="16">
         <v>5</v>
       </c>
-      <c r="U17" s="21"/>
-      <c r="V17" s="20">
+      <c r="U17" s="17"/>
+      <c r="V17" s="16">
         <v>8</v>
       </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="20">
+      <c r="W17" s="17"/>
+      <c r="X17" s="16">
         <v>3</v>
       </c>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="15">
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="4">
         <v>9</v>
       </c>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="16" t="s">
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="18"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="20"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="25" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="32"/>
+      <c r="H22" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="32"/>
+      <c r="J22" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="5"/>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="16">
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="18">
         <v>22</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16">
+      <c r="E23" s="20"/>
+      <c r="F23" s="18">
         <v>43</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="16">
+      <c r="G23" s="20"/>
+      <c r="H23" s="18">
         <v>5</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="16">
+      <c r="I23" s="20"/>
+      <c r="J23" s="18">
         <v>19</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="16" t="s">
+      <c r="K23" s="20"/>
+      <c r="L23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="18"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="20">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="16">
         <v>6</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="20">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16">
         <v>0</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="20">
+      <c r="G24" s="17"/>
+      <c r="H24" s="16">
         <v>1</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="16">
+      <c r="I24" s="17"/>
+      <c r="J24" s="18">
         <v>1</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16" t="s">
+      <c r="K24" s="20"/>
+      <c r="L24" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="20">
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="16">
         <v>31</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20">
+      <c r="E25" s="17"/>
+      <c r="F25" s="16">
         <v>84</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20">
+      <c r="G25" s="17"/>
+      <c r="H25" s="16">
         <v>9</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="16">
+      <c r="I25" s="17"/>
+      <c r="J25" s="18">
         <v>26</v>
       </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="16" t="s">
+      <c r="K25" s="20"/>
+      <c r="L25" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="18"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="16">
         <v>99</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="20">
+      <c r="E26" s="17"/>
+      <c r="F26" s="16">
         <v>2</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="20">
+      <c r="G26" s="17"/>
+      <c r="H26" s="16">
         <v>22</v>
       </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="15">
+      <c r="I26" s="17"/>
+      <c r="J26" s="4">
         <v>2</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16" t="s">
+      <c r="K26" s="4"/>
+      <c r="L26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="18"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="16">
         <v>7</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="20">
+      <c r="E27" s="17"/>
+      <c r="F27" s="16">
         <v>1</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20">
+      <c r="G27" s="17"/>
+      <c r="H27" s="16">
         <v>0</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="15">
+      <c r="I27" s="17"/>
+      <c r="J27" s="4">
         <v>10</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="18"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="14" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14" t="s">
+      <c r="K32" s="8"/>
+      <c r="L32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="16">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="18">
         <v>18</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16">
+      <c r="E33" s="20"/>
+      <c r="F33" s="18">
         <v>22</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="16">
+      <c r="G33" s="20"/>
+      <c r="H33" s="18">
         <v>2</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="15">
+      <c r="I33" s="20"/>
+      <c r="J33" s="4">
         <v>26</v>
       </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="16" t="s">
+      <c r="K33" s="4"/>
+      <c r="L33" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="16">
         <v>3</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="20">
+      <c r="E34" s="17"/>
+      <c r="F34" s="16">
         <v>4</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20">
+      <c r="G34" s="17"/>
+      <c r="H34" s="16">
         <v>2</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="15">
+      <c r="I34" s="17"/>
+      <c r="J34" s="4">
         <v>3</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16" t="s">
+      <c r="K34" s="4"/>
+      <c r="L34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="20">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="16">
         <v>20</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="20">
+      <c r="E35" s="17"/>
+      <c r="F35" s="16">
         <v>92</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="20">
+      <c r="G35" s="17"/>
+      <c r="H35" s="16">
         <v>11</v>
       </c>
-      <c r="I35" s="21"/>
-      <c r="J35" s="15">
+      <c r="I35" s="17"/>
+      <c r="J35" s="4">
         <v>25</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="16" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="16">
         <v>61</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20">
+      <c r="E36" s="17"/>
+      <c r="F36" s="16">
         <v>22</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="20">
+      <c r="G36" s="17"/>
+      <c r="H36" s="16">
         <v>32</v>
       </c>
-      <c r="I36" s="21"/>
-      <c r="J36" s="15">
+      <c r="I36" s="17"/>
+      <c r="J36" s="4">
         <v>30</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16" t="s">
+      <c r="K36" s="4"/>
+      <c r="L36" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="16">
         <v>12</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="20">
+      <c r="E37" s="17"/>
+      <c r="F37" s="16">
         <v>1</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="20">
+      <c r="G37" s="17"/>
+      <c r="H37" s="16">
         <v>0</v>
       </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="15">
+      <c r="I37" s="17"/>
+      <c r="J37" s="4">
         <v>5</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16" t="s">
+      <c r="K37" s="4"/>
+      <c r="L37" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13" t="s">
+      <c r="E42" s="21"/>
+      <c r="F42" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
+      <c r="G42" s="21"/>
+      <c r="H42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14" t="s">
+      <c r="I42" s="21"/>
+      <c r="J42" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14" t="s">
+      <c r="K42" s="8"/>
+      <c r="L42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="16">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="18">
         <v>16</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="16">
+      <c r="E43" s="20"/>
+      <c r="F43" s="18">
         <v>34</v>
       </c>
-      <c r="G43" s="18"/>
-      <c r="H43" s="16">
+      <c r="G43" s="20"/>
+      <c r="H43" s="18">
         <v>3</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="15">
+      <c r="I43" s="20"/>
+      <c r="J43" s="4">
         <v>27</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="16" t="s">
+      <c r="K43" s="4"/>
+      <c r="L43" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="18"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="16">
         <v>3</v>
       </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20">
+      <c r="E44" s="17"/>
+      <c r="F44" s="16">
         <v>4</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="20">
+      <c r="G44" s="17"/>
+      <c r="H44" s="16">
         <v>2</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="15">
+      <c r="I44" s="17"/>
+      <c r="J44" s="4">
         <v>3</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="16" t="s">
+      <c r="K44" s="4"/>
+      <c r="L44" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="18"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="16">
         <v>30</v>
       </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="20">
+      <c r="E45" s="17"/>
+      <c r="F45" s="16">
         <v>93</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="20">
+      <c r="G45" s="17"/>
+      <c r="H45" s="16">
         <v>11</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="15">
+      <c r="I45" s="17"/>
+      <c r="J45" s="4">
         <v>25</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="16" t="s">
+      <c r="K45" s="4"/>
+      <c r="L45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="18"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="16">
         <v>64</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20">
+      <c r="E46" s="17"/>
+      <c r="F46" s="16">
         <v>22</v>
       </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="20">
+      <c r="G46" s="17"/>
+      <c r="H46" s="16">
         <v>31</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="15">
+      <c r="I46" s="17"/>
+      <c r="J46" s="4">
         <v>28</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16" t="s">
+      <c r="K46" s="4"/>
+      <c r="L46" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="18"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="16">
         <v>10</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="20">
+      <c r="E47" s="17"/>
+      <c r="F47" s="16">
         <v>1</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="20">
+      <c r="G47" s="17"/>
+      <c r="H47" s="16">
         <v>0</v>
       </c>
-      <c r="I47" s="21"/>
-      <c r="J47" s="15">
+      <c r="I47" s="17"/>
+      <c r="J47" s="4">
         <v>7</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="16" t="s">
+      <c r="K47" s="4"/>
+      <c r="L47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="18"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="259">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A21:O21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A31:O31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="A41:O41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AE17"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AE14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AE12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="A11:O11"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AF4:AG4"/>
@@ -2077,241 +2364,6 @@
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AE16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AE17"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AE14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AE12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AE13"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="A41:O41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A31:O31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A21:O21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
